--- a/Assets/Data/Helps.xlsx
+++ b/Assets/Data/Helps.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7070" activeTab="1"/>
+    <workbookView windowWidth="19200" windowHeight="7070"/>
   </bookViews>
   <sheets>
     <sheet name="Help" sheetId="3" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="31">
   <si>
     <t>Id</t>
   </si>
@@ -23,12 +23,24 @@
     <t>Key</t>
   </si>
   <si>
+    <t>GuideImagePath</t>
+  </si>
+  <si>
+    <t>CommonHelpId</t>
+  </si>
+  <si>
     <t>Help</t>
   </si>
   <si>
+    <t>""</t>
+  </si>
+  <si>
     <t>Tactics</t>
   </si>
   <si>
+    <t>Symbol</t>
+  </si>
+  <si>
     <t>Battle</t>
   </si>
   <si>
@@ -53,35 +65,83 @@
     <t>ゲームの流れ</t>
   </si>
   <si>
-    <t>■戦略ステージ
-猶予ターンを1つ消費し探索することで
-バトルを行い報酬を入手したり仲間を増やすことができます。
-ステージはボスを倒すか猶予ターンが0になると強制的に終了します。
-■魔物討伐
+    <t>◇ゲームの目的
+Normは全6層からなるステージをクリアすることが目的です。
+マスを選択してステージを進め、各階層にいるボスを討伐することで次の階層に進めます。
+■バトルボーナス
+バトルで勝利するとバトル評価に応じてバトルボーナスを獲得できます。
+バトルボーナスは累積しバトルで勝利した際に獲得する(Nu)にボーナス補正が入ります。
+■(Nu)
+Lvアップや魔法習得に必要なリソースです。
+バトルで勝利したりトレジャーマスを選んだ時に入手できます。
+◇マスの種類
+■魔物殲滅
 メンバーを選んで敵とバトルを行います。
 勝利するとバトルに参加したメンバーのLvが1上がります。
-敗北した場合はバトル前の状態に戻ります。
-■調停者加入
-新たな仲間を加入することができます。
-■魔法入手
-新たな魔法を入手することができます。
+敗北した場合でもペナルティはなくバトル前の状態に戻ります。
+■使途殲滅
+各階層のボスとバトルを行います。
+基本的に魔物殲滅と変わりません。
+■魔法選択
+候補の中から魔法を1つだけ選択して入手できます。
 入手した魔法は(Nu)を消費してメンバーに習得させることができます。
-■治癒
-メンバー全員のＨｐとＭｐを回復します。
-■素子補充
-(Nu)を入手することができます。
-■使途殲滅
-ステージボスとバトルを行います。
-勝利するとステージは強制的に終了します。</t>
-  </si>
-  <si>
-    <t>バトル</t>
-  </si>
-  <si>
-    <t>■バトル
+■ショップ
+候補の中から魔法を(Nu)を消費して入手できます。
+(Nu)を消費しますが選択できる魔法の数に限りはありません。
+■仲間加入
+候補の中から仲間を1名だけ選択して加入できます。
+■仲間召喚
+未加入の仲間を1名だけ選択して加入できます。
+■トレジャー
+(Nu)を獲得します。</t>
+  </si>
+  <si>
+    <t>ゲームの目的</t>
+  </si>
+  <si>
+    <t>◇ゲームの目的
+Normは全6層からなるステージをクリアすることが目的です。
+マスを選択してステージを進め、各階層にいるボスを討伐することで次の階層に進めます。</t>
+  </si>
+  <si>
+    <t>ステージのマス</t>
+  </si>
+  <si>
+    <t>◇マスの種類
+■魔物殲滅
 メンバーを選んで敵とバトルを行います。
 勝利するとバトルに参加したメンバーのLvが1上がります。
-敗北した場合はバトル前の状態に戻ります。</t>
+敗北した場合でもペナルティはなくバトル前の状態に戻ります。
+■使途殲滅
+各階層のボスとバトルを行います。
+基本的に魔物殲滅と変わりません。
+■魔法選択
+候補の中から魔法を1つだけ選択して入手できます。
+入手した魔法は(Nu)を消費してメンバーに習得させることができます。
+■ショップ
+候補の中から魔法を(Nu)を消費して入手できます。
+(Nu)を消費しますが選択できる魔法の数に限りはありません。
+■仲間加入
+候補の中から仲間を1名だけ選択して加入できます。
+■仲間召喚
+未加入の仲間を1名だけ選択して加入できます。
+■トレジャー
+(Nu)を獲得します。</t>
+  </si>
+  <si>
+    <t>バトル</t>
+  </si>
+  <si>
+    <t>■編成
+バトルに参加するメンバーを最大5名まで選んで編成します。
+メンバーはそれぞれFront・Backに配置できます。
+Backに配置したメンバーはRangeがLの魔法のみ使用できます。
+■Lvアップ
+(Nu)を消費してメンバーのLvをアップできます。
+消費量はLvアップを使用した回数分だけ増加します。
+■魔法習得
+(Nu)を消費してメンバーに魔法を習得させることができます。
+消費量はメンバーの属性適正値によって増減します。</t>
   </si>
   <si>
     <t>レベルアップ</t>
@@ -109,9 +169,6 @@
   </si>
   <si>
     <t>キャラ</t>
-  </si>
-  <si>
-    <t>""</t>
   </si>
   <si>
     <t>ステージ全体</t>
@@ -122,9 +179,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
@@ -136,68 +193,84 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -218,29 +291,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -257,9 +307,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -267,7 +324,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -289,37 +346,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -331,139 +508,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -480,26 +537,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -514,6 +551,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -542,17 +594,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -561,7 +607,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -580,6 +626,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -588,154 +645,151 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1059,15 +1113,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelRow="7" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="4"/>
+  <cols>
+    <col min="3" max="3" width="15.6363636363636" customWidth="1"/>
+    <col min="4" max="4" width="14.5454545454545" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1077,81 +1135,163 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2">
+        <v>1000</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
         <v>1010</v>
       </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2">
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3">
+        <v>1000</v>
+      </c>
+      <c r="E3">
         <v>1010</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3">
-        <v>1011</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3">
-        <v>1011</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>1020</v>
       </c>
       <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4">
+        <v>1000</v>
+      </c>
+      <c r="E4">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>10110</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
         <v>5</v>
       </c>
-      <c r="C4">
+      <c r="D5">
+        <v>1011</v>
+      </c>
+      <c r="E5">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>10120</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6">
         <v>1020</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5">
+      <c r="E6">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>10130</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7">
         <v>1030</v>
       </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5">
+      <c r="E7">
         <v>1030</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
-      <c r="A6">
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <v>10140</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8">
         <v>1040</v>
       </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6">
+      <c r="E8">
         <v>1040</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
-      <c r="A7">
+    <row r="9" spans="1:5">
+      <c r="A9">
+        <v>10150</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9">
         <v>1050</v>
       </c>
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7">
+      <c r="E9">
         <v>1050</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
-      <c r="A8">
+    <row r="10" spans="1:5">
+      <c r="A10">
+        <v>10160</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10">
         <v>1060</v>
       </c>
-      <c r="B8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8">
+      <c r="E10">
         <v>1060</v>
       </c>
     </row>
@@ -1164,13 +1304,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelRow="7" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="2"/>
   <cols>
     <col min="2" max="2" width="13.7272727272727" customWidth="1"/>
     <col min="3" max="3" width="62.8181818181818" customWidth="1"/>
@@ -1181,87 +1321,109 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" ht="338" spans="1:3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" ht="409.5" spans="1:3">
       <c r="A2">
-        <v>1010</v>
+        <v>1000</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" ht="52" spans="1:3">
       <c r="A3">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" ht="39" spans="1:3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" ht="338" spans="1:3">
       <c r="A4">
         <v>1020</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" ht="39" spans="1:3">
+        <v>19</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" ht="156" spans="1:3">
       <c r="A5">
-        <v>1030</v>
+        <v>10110</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="6" ht="39" spans="1:3">
       <c r="A6">
-        <v>1040</v>
+        <v>10120</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>23</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" ht="39" spans="1:3">
       <c r="A7">
-        <v>1050</v>
+        <v>10130</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>25</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" ht="39" spans="1:3">
       <c r="A8">
-        <v>1060</v>
+        <v>10140</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>22</v>
+        <v>27</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9">
+        <v>10150</v>
+      </c>
+      <c r="B9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10">
+        <v>10160</v>
+      </c>
+      <c r="B10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Data/Helps.xlsx
+++ b/Assets/Data/Helps.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="51">
   <si>
     <t>Id</t>
   </si>
@@ -41,7 +41,25 @@
     <t>Symbol</t>
   </si>
   <si>
+    <t>BattleBonus</t>
+  </si>
+  <si>
     <t>Battle</t>
+  </si>
+  <si>
+    <t>BattleParty</t>
+  </si>
+  <si>
+    <t>BattleSet</t>
+  </si>
+  <si>
+    <t>BattleEnd</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Parameter</t>
   </si>
   <si>
     <t>LevelUp</t>
@@ -68,12 +86,6 @@
     <t>◇ゲームの目的
 Normは全6層からなるステージをクリアすることが目的です。
 マスを選択してステージを進め、各階層にいるボスを討伐することで次の階層に進めます。
-■バトルボーナス
-バトルで勝利するとバトル評価に応じてバトルボーナスを獲得できます。
-バトルボーナスは累積しバトルで勝利した際に獲得する(Nu)にボーナス補正が入ります。
-■(Nu)
-Lvアップや魔法習得に必要なリソースです。
-バトルで勝利したりトレジャーマスを選んだ時に入手できます。
 ◇マスの種類
 ■魔物殲滅
 メンバーを選んで敵とバトルを行います。
@@ -93,7 +105,14 @@
 ■仲間召喚
 未加入の仲間を1名だけ選択して加入できます。
 ■トレジャー
-(Nu)を獲得します。</t>
+(Nu)を獲得します。
+◇バトル評価について
+■バトル評価
+バトルで勝利するとバトル評価を入手します。
+バトル評価の累積値の分だけバトルで勝利時に獲得する(Nu)にボーナス補正が入ります。
+■(Nu)
+Lvアップや魔法習得に必要なリソースです。
+バトルで勝利したりトレジャーマスを選んだ時に入手できます。</t>
   </si>
   <si>
     <t>ゲームの目的</t>
@@ -129,19 +148,173 @@
 (Nu)を獲得します。</t>
   </si>
   <si>
+    <t>バトル評価</t>
+  </si>
+  <si>
+    <t>◇バトル評価について
+■バトル評価
+バトルで勝利するとバトル評価を入手します。
+バトル評価の累積値の分だけバトルで勝利時に獲得する(Nu)にボーナス補正が入ります。
+■(Nu)
+Lvアップや魔法習得に必要なリソースです。
+バトルで勝利したりトレジャーマスを選んだ時に入手できます。</t>
+  </si>
+  <si>
     <t>バトル</t>
   </si>
   <si>
-    <t>■編成
+    <t>◇バトル編成について
+■編成
 バトルに参加するメンバーを最大5名まで選んで編成します。
 メンバーはそれぞれFront・Backに配置できます。
 Backに配置したメンバーはRangeがLの魔法のみ使用できます。
-■Lvアップ
-(Nu)を消費してメンバーのLvをアップできます。
-消費量はLvアップを使用した回数分だけ増加します。
-■魔法習得
-(Nu)を消費してメンバーに魔法を習得させることができます。
-消費量はメンバーの属性適正値によって増減します。</t>
+◇バトルシステム
+■バトル
+バトルは全てオートで進行します。
+キャラクターはそれぞれキャラ毎に設定した作戦に基づいて行動します。
+◇バトル勝敗
+■勝利時
+バトルの内容に応じてバトル評価を入手します。
+バトル評価に応じて(Nu)獲得量がアップします。
+さらにバトル評価の累積値に応じて
+次ステージのバトルマスに配置される(Nu)数もアップします。
+その他に報酬がある場合は獲得します。
+■敗北時
+敗北した場合でもペナルティはありません。
+同じ編成で再戦するか、別のマスを選び直して先に進むこともできます。</t>
+  </si>
+  <si>
+    <t>編成</t>
+  </si>
+  <si>
+    <t>◇バトル編成について
+■編成
+バトルに参加するメンバーを最大5名まで選んで編成します。
+メンバーはそれぞれFront・Backに配置できます。
+Backに配置したメンバーはRangeがLの魔法のみ使用できます。</t>
+  </si>
+  <si>
+    <t>バトルの流れ</t>
+  </si>
+  <si>
+    <t>◇バトルシステム
+■バトル
+バトルは全てオートで進行します。
+キャラクターはそれぞれキャラ毎に設定した作戦に基づいて行動します。</t>
+  </si>
+  <si>
+    <t>バトル結果</t>
+  </si>
+  <si>
+    <t>◇バトル勝敗
+■勝利時
+バトルの内容に応じてバトル評価を入手します。
+バトル評価に応じて(Nu)獲得量がアップします。
+さらにバトル評価の累積値に応じて
+次ステージのバトルマスに配置される(Nu)数もアップします。
+その他に報酬がある場合は獲得します。
+■敗北時
+敗北した場合でもペナルティはありません。
+同じ編成で再戦するか、別のマスを選び直して先に進むこともできます。</t>
+  </si>
+  <si>
+    <t>ステータス</t>
+  </si>
+  <si>
+    <t>◇キャラのパラメータ
+■Lv
+Lvはバトル勝利時、または(Nu)を使用してアップします。
+Lvに応じて魔法を習得することができます。
+■パラメータ
+HP：0になると戦闘不能になります。
+ATK：攻撃時のダメージ量に影響します。
+DEF：攻撃を受ける際のダメージ量に影響します。
+SPD：バトルの行動順に影響します。
+■属性適正値
+キャラ毎に5つの属性適正値があります。
+属性適正値は魔法習得する際の(Nu)使用量に影響します。
+■習得コスト
+属性適正値に応じて魔法習得する際の(Nu)使用量が変化します。
+また魔法のRankがRの場合は(Nu)使用量が2倍になります。
+◇魔法について
+■種別
+魔法にはそれぞれ種別があります。
+・Active
+バトルでターンがまわってきた際に使用します。
+基本的に同じターン内で発動する魔法の起点になります。
+・Passive
+(条件)を満たしたとき自動で発動します。
+・Messiah
+Passiveと同じく(条件)を満たしたとき自動で発動しさらに覚醒状態になります。
+バトル中1回だけ発動します。
+・Awaken
+Activeと同じくバトルでターンがまわってきた際に使用します。
+覚醒状態の場合にのみバトル中1回だけ発動できます。
+・Enhance
+習得している魔法の効果を強化します。
+効果は作戦に設定しなくても自動で発動します。
+・Relic
+編成しているキャラクター全体に自動で効果が発動します。
+■Range
+魔法にはそれぞれ攻撃範囲があります。
+Range.Sの魔法はBackに配置した敵を対象にできません。
+ただしFrontに配置した敵がいない場合は使用できます。
+Range.Lの魔法は配置にかかわらず対象にできます。
+■CT
+一部の魔法にはCT(カウントターン)があります。
+CTは魔法を使用した後、再度使用できるまでの猶予ターンです。</t>
+  </si>
+  <si>
+    <t>パラメータ</t>
+  </si>
+  <si>
+    <t>◇キャラのパラメータ
+■Lv
+Lvはバトル勝利時、または(Nu)を使用してアップします。
+Lvに応じて魔法を習得することができます。
+■パラメータ
+HP：0になると戦闘不能になります。
+ATK：攻撃時のダメージ量に影響します。
+DEF：攻撃を受ける際のダメージ量に影響します。
+SPD：バトルの行動順に影響します。
+■属性適正値
+キャラ毎に5つの属性適正値があります。
+属性適正値は魔法習得する際の(Nu)使用量に影響します。
+■習得コスト
+属性適正値に応じて魔法習得する際の(Nu)使用量が変化します。
+また魔法のRankがRの場合は(Nu)使用量が2倍になります。</t>
+  </si>
+  <si>
+    <t>魔法</t>
+  </si>
+  <si>
+    <t>◇魔法について
+■種別
+魔法にはそれぞれ種別があります。
+・Active
+バトルでターンがまわってきた際に使用します。
+基本的に同じターン内で発動する魔法の起点になります。
+・Passive
+(条件)を満たしたとき自動で発動します。
+・Messiah
+Passiveと同じく(条件)を満たしたとき自動で発動しさらに覚醒状態になります。
+バトル中1回だけ発動します。
+・Awaken
+Activeと同じくバトルでターンがまわってきた際に使用します。
+覚醒状態の場合にのみバトル中1回だけ発動できます。
+・Enhance
+習得している魔法の効果を強化します。
+効果は作戦に設定しなくても自動で発動します。
+・Relic
+編成しているキャラクター全体に自動で効果が発動します。
+■Range
+魔法にはそれぞれ攻撃範囲があります。
+Range.Sの魔法はBackに配置した敵を対象にできません。
+ただしFrontに配置した敵がいない場合は使用できます。
+Range.Lの魔法は配置にかかわらず対象にできます。
+■CT
+一部の魔法にはCT(カウントターン)があります。
+CTは魔法を使用した後、再度使用できるまでの猶予ターンです。</t>
   </si>
   <si>
     <t>レベルアップ</t>
@@ -179,10 +352,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -194,23 +367,24 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -222,6 +396,80 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -230,6 +478,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -238,14 +494,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -254,20 +502,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -275,67 +509,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -346,187 +519,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -540,17 +713,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -565,6 +732,30 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -587,18 +778,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -611,32 +810,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -645,16 +818,16 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -663,127 +836,127 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1113,10 +1286,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="4"/>
@@ -1195,103 +1368,222 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
-        <v>10110</v>
+        <v>1030</v>
       </c>
       <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
         <v>8</v>
       </c>
-      <c r="C5" t="s">
-        <v>5</v>
-      </c>
       <c r="D5">
-        <v>1011</v>
+        <v>1000</v>
       </c>
       <c r="E5">
-        <v>1011</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
-        <v>10120</v>
+        <v>2000</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
       </c>
       <c r="D6">
-        <v>1020</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>1020</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
-        <v>10130</v>
+        <v>2010</v>
       </c>
       <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
         <v>10</v>
       </c>
-      <c r="C7" t="s">
-        <v>5</v>
-      </c>
       <c r="D7">
-        <v>1030</v>
+        <v>2000</v>
       </c>
       <c r="E7">
-        <v>1030</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
-        <v>10140</v>
+        <v>2020</v>
       </c>
       <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
         <v>11</v>
       </c>
-      <c r="C8" t="s">
-        <v>5</v>
-      </c>
       <c r="D8">
-        <v>1040</v>
+        <v>2000</v>
       </c>
       <c r="E8">
-        <v>1040</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>10150</v>
+        <v>2030</v>
       </c>
       <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
         <v>12</v>
       </c>
-      <c r="C9" t="s">
-        <v>5</v>
-      </c>
       <c r="D9">
-        <v>1050</v>
+        <v>2000</v>
       </c>
       <c r="E9">
-        <v>1050</v>
+        <v>2030</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>10160</v>
+        <v>3000</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
       </c>
       <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11">
+        <v>3010</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11">
+        <v>3000</v>
+      </c>
+      <c r="E11">
+        <v>3010</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12">
+        <v>3020</v>
+      </c>
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12">
+        <v>3000</v>
+      </c>
+      <c r="E12">
+        <v>3020</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13">
+        <v>10120</v>
+      </c>
+      <c r="B13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13">
+        <v>1020</v>
+      </c>
+      <c r="E13">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14">
+        <v>10130</v>
+      </c>
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14">
+        <v>1030</v>
+      </c>
+      <c r="E14">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15">
+        <v>10140</v>
+      </c>
+      <c r="B15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15">
+        <v>1040</v>
+      </c>
+      <c r="E15">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16">
+        <v>10150</v>
+      </c>
+      <c r="B16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16">
+        <v>1050</v>
+      </c>
+      <c r="E16">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17">
+        <v>10160</v>
+      </c>
+      <c r="B17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17">
         <v>1060</v>
       </c>
-      <c r="E10">
+      <c r="E17">
         <v>1060</v>
       </c>
     </row>
@@ -1304,10 +1596,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:A10"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="2"/>
@@ -1321,7 +1613,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
         <v>4</v>
@@ -1332,10 +1624,10 @@
         <v>1000</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" ht="52" spans="1:3">
@@ -1343,10 +1635,10 @@
         <v>1010</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" ht="338" spans="1:3">
@@ -1354,75 +1646,152 @@
         <v>1020</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" ht="156" spans="1:3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" ht="117" spans="1:3">
       <c r="A5">
-        <v>10110</v>
+        <v>1030</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" ht="39" spans="1:3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" ht="286" spans="1:3">
       <c r="A6">
+        <v>2000</v>
+      </c>
+      <c r="B6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" ht="65" spans="1:3">
+      <c r="A7">
+        <v>2010</v>
+      </c>
+      <c r="B7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" ht="52" spans="1:3">
+      <c r="A8">
+        <v>2020</v>
+      </c>
+      <c r="B8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" ht="143" spans="1:3">
+      <c r="A9">
+        <v>2030</v>
+      </c>
+      <c r="B9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" ht="409.5" spans="1:3">
+      <c r="A10">
+        <v>3000</v>
+      </c>
+      <c r="B10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" ht="234" spans="1:3">
+      <c r="A11">
+        <v>3010</v>
+      </c>
+      <c r="B11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" ht="409.5" spans="1:3">
+      <c r="A12">
+        <v>3020</v>
+      </c>
+      <c r="B12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" ht="39" spans="1:3">
+      <c r="A13">
         <v>10120</v>
       </c>
-      <c r="B6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" ht="39" spans="1:3">
-      <c r="A7">
+      <c r="B13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" ht="39" spans="1:3">
+      <c r="A14">
         <v>10130</v>
       </c>
-      <c r="B7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" ht="39" spans="1:3">
-      <c r="A8">
+      <c r="B14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" ht="39" spans="1:3">
+      <c r="A15">
         <v>10140</v>
       </c>
-      <c r="B8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9">
+      <c r="B15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16">
         <v>10150</v>
       </c>
-      <c r="B9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="B16" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
-      <c r="A10">
+    <row r="17" spans="1:3">
+      <c r="A17">
         <v>10160</v>
       </c>
-      <c r="B10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="B17" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" t="s">
         <v>5</v>
       </c>
     </row>

--- a/Assets/Data/Helps.xlsx
+++ b/Assets/Data/Helps.xlsx
@@ -352,10 +352,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -366,6 +366,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -374,7 +412,69 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -388,115 +488,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -509,6 +502,13 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -519,187 +519,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -713,11 +713,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -732,30 +762,6 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -787,21 +793,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -810,6 +801,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -818,16 +818,16 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -836,127 +836,127 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1289,7 +1289,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="4"/>

--- a/Assets/Data/Helps.xlsx
+++ b/Assets/Data/Helps.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7070"/>
+    <workbookView windowWidth="19200" windowHeight="7070" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Help" sheetId="3" r:id="rId1"/>
@@ -165,7 +165,7 @@
   <si>
     <t>◇バトル編成について
 ■編成
-バトルに参加するメンバーを最大5名まで選んで編成します。
+バトルに参加するメンバーは最大5名まで編成できます。
 メンバーはそれぞれFront・Backに配置できます。
 Backに配置したメンバーはRangeがLの魔法のみ使用できます。
 ◇バトルシステム
@@ -190,8 +190,8 @@
     <t>◇バトル編成について
 ■編成
 バトルに参加するメンバーを最大5名まで選んで編成します。
-メンバーはそれぞれFront・Backに配置できます。
-Backに配置したメンバーはRangeがLの魔法のみ使用できます。</t>
+メンバーはそれぞれ前衛・後衛に配置できます。
+前衛のメンバーは射程が遠距離の魔法以外は後衛を対象にできません。</t>
   </si>
   <si>
     <t>バトルの流れ</t>
@@ -352,10 +352,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -363,6 +363,20 @@
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -375,10 +389,17 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -398,30 +419,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -433,6 +441,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -441,6 +479,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -450,65 +503,12 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -519,25 +519,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -549,19 +633,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -573,133 +669,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -737,6 +737,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -748,21 +757,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -793,6 +787,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -801,15 +810,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -818,145 +818,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1288,7 +1288,7 @@
   <sheetPr/>
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -1598,8 +1598,8 @@
   <sheetPr/>
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="2"/>

--- a/Assets/Data/Helps.xlsx
+++ b/Assets/Data/Helps.xlsx
@@ -141,9 +141,9 @@
 候補の中から魔法を(Nu)を消費して入手できます。
 (Nu)を消費しますが選択できる魔法の数に限りはありません。
 ■仲間加入
-候補の中から仲間を1名だけ選択して加入できます。
+候補の中から仲間を1名選択して加入します。
 ■仲間召喚
-未加入の仲間を1名だけ選択して加入できます。
+未加入の仲間を1名選択して加入します。
 ■トレジャー
 (Nu)を獲得します。</t>
   </si>
@@ -352,10 +352,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -375,6 +375,120 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -389,126 +503,12 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -519,187 +519,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -710,39 +710,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -757,6 +724,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -778,11 +765,33 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -801,15 +810,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -818,15 +818,15 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -836,127 +836,127 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1598,8 +1598,8 @@
   <sheetPr/>
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="2"/>
